--- a/Bauvorhaben/SB-NORD-01/Regieberichte/RB1.xlsx
+++ b/Bauvorhaben/SB-NORD-01/Regieberichte/RB1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="31">
   <si>
     <t>Regiebericht</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Stadt Lindau</t>
   </si>
   <si>
-    <t>Baustelle sanierung</t>
+    <t>SB-NORD-01 - Baustelle sanierung</t>
   </si>
   <si>
     <t>DATUM:</t>
@@ -45,27 +45,15 @@
     <t>ERBRACHTE LEISTUNGEN:</t>
   </si>
   <si>
-    <t>Heute im Bereich B2 Trennwaende geschlossen und Unterkonstruktion gesetzt.</t>
-  </si>
-  <si>
-    <t>Spachtelarbeiten in Zone 1 fertiggestellt, Anschluesse kontrolliert.</t>
-  </si>
-  <si>
-    <t>Zwei Monteure vor Ort: Anna Huber und Marco Klein, jeweils 8 Stunden.</t>
-  </si>
-  <si>
-    <t>Arbeitszeit 07:00–16:00, Pause 30 min.</t>
-  </si>
-  <si>
-    <t>Zusatz</t>
-  </si>
-  <si>
-    <t>stung: Anpassung an Installationskollision, Wand A3-A5 versetzt.</t>
+    <t>amelle decke im EG öffnen und schließen</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t>2 mann je 12h</t>
+  </si>
+  <si>
     <t>EINGESETZTE ARBEITSKRÄFTE</t>
   </si>
   <si>
@@ -93,6 +81,9 @@
     <t>AUFZAHLUNGEN ÜBERSTD. ERSCHWERN. Usw.</t>
   </si>
   <si>
+    <t>mann je</t>
+  </si>
+  <si>
     <t>BEISTELLUNG VON BAU-, HILFS-, NEBENSTOFFEN, GERÄTEN U. BETRIEBSSTOFFEN, FREMDLEISTUNGEN u. SONSTIGE KOSTEN</t>
   </si>
   <si>
@@ -103,9 +94,6 @@
   </si>
   <si>
     <t>BEZEICHNUNG</t>
-  </si>
-  <si>
-    <t>geliefert: 12 stk Winkelset QR50, 6 m2 GKBI, 2 Kartons Blechschrauben.</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -349,81 +337,81 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -506,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -615,19 +603,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -659,16 +635,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -677,43 +653,43 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1281,7 +1257,7 @@
       <c r="H10" s="30"/>
       <c r="I10" s="31"/>
       <c r="J10" s="32">
-        <v>46047.81478984954</v>
+        <v>46061.98167810185</v>
       </c>
       <c r="K10" s="33"/>
     </row>
@@ -1311,16 +1287,18 @@
       <c r="A12" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="43"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
       <c r="M12" s="39"/>
       <c r="N12" s="39"/>
       <c r="O12" s="39"/>
@@ -1331,18 +1309,20 @@
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="43"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
       <c r="M13" s="39"/>
       <c r="N13" s="39"/>
       <c r="O13" s="39"/>
@@ -1352,19 +1332,21 @@
       <c r="S13" s="39"/>
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="46"/>
+      <c r="A14" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
       <c r="M14" s="39"/>
       <c r="N14" s="39"/>
       <c r="O14" s="39"/>
@@ -1374,19 +1356,21 @@
       <c r="S14" s="39"/>
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="46"/>
+      <c r="A15" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
       <c r="M15" s="39"/>
       <c r="N15" s="39"/>
       <c r="O15" s="39"/>
@@ -1396,19 +1380,21 @@
       <c r="S15" s="39"/>
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="46"/>
+      <c r="A16" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
       <c r="M16" s="39"/>
       <c r="N16" s="39"/>
       <c r="O16" s="39"/>
@@ -1418,19 +1404,21 @@
       <c r="S16" s="39"/>
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="46"/>
+      <c r="A17" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
       <c r="M17" s="39"/>
       <c r="N17" s="39"/>
       <c r="O17" s="39"/>
@@ -1440,19 +1428,21 @@
       <c r="S17" s="39"/>
     </row>
     <row r="18" ht="18" customHeight="1" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="46"/>
+      <c r="A18" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
       <c r="M18" s="39"/>
       <c r="N18" s="39"/>
       <c r="O18" s="39"/>
@@ -1462,19 +1452,21 @@
       <c r="S18" s="39"/>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="46"/>
+      <c r="A19" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
       <c r="M19" s="39"/>
       <c r="N19" s="39"/>
       <c r="O19" s="39"/>
@@ -1483,20 +1475,20 @@
       <c r="R19" s="39"/>
       <c r="S19" s="39"/>
     </row>
-    <row r="20" ht="15" customHeight="1" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="51"/>
+    <row r="20" ht="15" customHeight="1" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="47"/>
       <c r="M20" s="39"/>
       <c r="N20" s="39"/>
       <c r="O20" s="39"/>
@@ -1505,22 +1497,22 @@
       <c r="R20" s="39"/>
       <c r="S20" s="39"/>
     </row>
-    <row r="21" ht="12.75" customHeight="1" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="58"/>
+    <row r="21" ht="12.75" customHeight="1" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="54"/>
       <c r="M21" s="39"/>
       <c r="N21" s="39"/>
       <c r="O21" s="39"/>
@@ -1529,38 +1521,38 @@
       <c r="R21" s="39"/>
       <c r="S21" s="39"/>
     </row>
-    <row r="22" ht="33" customHeight="1" spans="1:19" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="60" t="s">
+    <row r="22" ht="33" customHeight="1" spans="1:19" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="61" t="s">
+      <c r="F22" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="H22" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="K22" s="65"/>
+      <c r="K22" s="61"/>
       <c r="M22" s="39"/>
       <c r="N22" s="39"/>
       <c r="O22" s="39"/>
@@ -1570,383 +1562,447 @@
       <c r="S22" s="39"/>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="66">
-        <v>8</v>
-      </c>
-      <c r="B23" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="67">
-        <v>0.5416666666678793</v>
-      </c>
-      <c r="E23" s="67">
-        <v>0.75</v>
-      </c>
-      <c r="F23" s="67">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="G23" s="67">
-        <v>0.4166666666678793</v>
-      </c>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
+      <c r="A23" s="62">
+        <v>12</v>
+      </c>
+      <c r="B23" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="68">
-        <v>8</v>
-      </c>
-      <c r="B24" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="67">
-        <v>0.5416666666678793</v>
-      </c>
-      <c r="E24" s="67">
-        <v>0.75</v>
-      </c>
-      <c r="F24" s="67">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="G24" s="67">
-        <v>0.4166666666678793</v>
-      </c>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
+      <c r="A24" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="68"/>
-      <c r="B25" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="68"/>
+      <c r="A25" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="68"/>
-      <c r="B26" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="68"/>
+      <c r="A26" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="J26" s="64"/>
+      <c r="K26" s="64"/>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="68"/>
-      <c r="B27" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="68"/>
+      <c r="A27" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="68"/>
-      <c r="B28" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="68"/>
+      <c r="A28" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="J28" s="64"/>
+      <c r="K28" s="64"/>
     </row>
     <row r="29" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="69"/>
-      <c r="B29" s="69"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="69"/>
-    </row>
-    <row r="30" ht="27.75" customHeight="1" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="70" t="s">
+      <c r="A29" s="65"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="65"/>
+    </row>
+    <row r="30" ht="27.75" customHeight="1" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="67"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="68"/>
+    </row>
+    <row r="31" ht="21" customHeight="1" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="71"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="71"/>
-      <c r="K30" s="72"/>
-    </row>
-    <row r="31" ht="21" customHeight="1" spans="1:11" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="60" t="s">
+      <c r="D31" s="61"/>
+      <c r="E31" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="61"/>
+      <c r="H31" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" s="70"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="70"/>
+    </row>
+    <row r="32" ht="18" customHeight="1" spans="1:11" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="73"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="74"/>
+      <c r="J32" s="74"/>
+      <c r="K32" s="73"/>
+    </row>
+    <row r="33" ht="18" customHeight="1" spans="1:11" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="76"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="77"/>
+      <c r="J33" s="77"/>
+      <c r="K33" s="76"/>
+    </row>
+    <row r="34" ht="18" customHeight="1" spans="1:11" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="76"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="77"/>
+      <c r="J34" s="77"/>
+      <c r="K34" s="76"/>
+    </row>
+    <row r="35" ht="18" customHeight="1" spans="1:11" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="76"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="77"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="76"/>
+    </row>
+    <row r="36" ht="18" customHeight="1" spans="1:11" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="76"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="77"/>
+      <c r="J36" s="77"/>
+      <c r="K36" s="76"/>
+    </row>
+    <row r="37" ht="18" customHeight="1" spans="1:11" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="76"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="75"/>
+      <c r="I37" s="77"/>
+      <c r="J37" s="77"/>
+      <c r="K37" s="76"/>
+    </row>
+    <row r="38" ht="18" customHeight="1" spans="1:11" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="79"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="78"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="78"/>
+      <c r="I38" s="80"/>
+      <c r="J38" s="80"/>
+      <c r="K38" s="79"/>
+    </row>
+    <row r="39" ht="32.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="81"/>
+      <c r="B39" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="60" t="s">
+      <c r="C39" s="82"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="82"/>
+      <c r="F39" s="82"/>
+      <c r="G39" s="82"/>
+      <c r="H39" s="82"/>
+      <c r="I39" s="82"/>
+      <c r="J39" s="82"/>
+      <c r="K39" s="83"/>
+    </row>
+    <row r="40" ht="20.25" customHeight="1" spans="1:11" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="73" t="s">
+      <c r="B40" s="86"/>
+      <c r="C40" s="87"/>
+      <c r="D40" s="88"/>
+      <c r="E40" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="65"/>
-      <c r="E31" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31" s="73" t="s">
-        <v>27</v>
-      </c>
-      <c r="G31" s="65"/>
-      <c r="H31" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="I31" s="74"/>
-      <c r="J31" s="74"/>
-      <c r="K31" s="74"/>
-    </row>
-    <row r="32" ht="18" customHeight="1" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="76" t="s">
+      <c r="F40" s="87"/>
+      <c r="G40" s="87"/>
+      <c r="H40" s="87"/>
+      <c r="I40" s="87"/>
+      <c r="J40" s="87"/>
+      <c r="K40" s="88"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="90"/>
+      <c r="E41" s="91"/>
+      <c r="K41" s="92"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="90"/>
+      <c r="E42" s="90"/>
+      <c r="K42" s="92"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="90"/>
+      <c r="E43" s="90"/>
+      <c r="K43" s="92"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="77"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="78"/>
-      <c r="K32" s="77"/>
-    </row>
-    <row r="33" ht="18" customHeight="1" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="79" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="80"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="81"/>
-      <c r="J33" s="81"/>
-      <c r="K33" s="80"/>
-    </row>
-    <row r="34" ht="18" customHeight="1" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="79" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="80"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="80"/>
-      <c r="H34" s="79"/>
-      <c r="I34" s="81"/>
-      <c r="J34" s="81"/>
-      <c r="K34" s="80"/>
-    </row>
-    <row r="35" ht="18" customHeight="1" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="79" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" s="80"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="80"/>
-      <c r="H35" s="79"/>
-      <c r="I35" s="81"/>
-      <c r="J35" s="81"/>
-      <c r="K35" s="80"/>
-    </row>
-    <row r="36" ht="18" customHeight="1" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="79" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="80"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="80"/>
-      <c r="H36" s="79"/>
-      <c r="I36" s="81"/>
-      <c r="J36" s="81"/>
-      <c r="K36" s="80"/>
-    </row>
-    <row r="37" ht="18" customHeight="1" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="79" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="80"/>
-      <c r="E37" s="68"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="80"/>
-      <c r="H37" s="79"/>
-      <c r="I37" s="81"/>
-      <c r="J37" s="81"/>
-      <c r="K37" s="80"/>
-    </row>
-    <row r="38" ht="18" customHeight="1" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="82" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="83"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="82"/>
-      <c r="G38" s="83"/>
-      <c r="H38" s="82"/>
-      <c r="I38" s="84"/>
-      <c r="J38" s="84"/>
-      <c r="K38" s="83"/>
-    </row>
-    <row r="39" ht="32.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="85"/>
-      <c r="B39" s="86" t="s">
+      <c r="B44" s="94"/>
+      <c r="C44" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="C39" s="86"/>
-      <c r="D39" s="86"/>
-      <c r="E39" s="86"/>
-      <c r="F39" s="86"/>
-      <c r="G39" s="86"/>
-      <c r="H39" s="86"/>
-      <c r="I39" s="86"/>
-      <c r="J39" s="86"/>
-      <c r="K39" s="87"/>
-    </row>
-    <row r="40" ht="20.25" customHeight="1" spans="1:11" s="88" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="89" t="s">
-        <v>31</v>
-      </c>
-      <c r="B40" s="90"/>
-      <c r="C40" s="91"/>
-      <c r="D40" s="92"/>
-      <c r="E40" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="F40" s="91"/>
-      <c r="G40" s="91"/>
-      <c r="H40" s="91"/>
-      <c r="I40" s="91"/>
-      <c r="J40" s="91"/>
-      <c r="K40" s="92"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="94"/>
-      <c r="E41" s="95"/>
-      <c r="K41" s="96"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="94"/>
-      <c r="E42" s="94"/>
-      <c r="K42" s="96"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="94"/>
-      <c r="E43" s="94"/>
-      <c r="K43" s="96"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="97" t="s">
-        <v>33</v>
-      </c>
-      <c r="B44" s="98"/>
-      <c r="C44" s="99" t="s">
-        <v>34</v>
-      </c>
-      <c r="D44" s="100"/>
-      <c r="E44" s="101" t="s">
-        <v>33</v>
-      </c>
-      <c r="F44" s="98"/>
-      <c r="G44" s="98"/>
-      <c r="H44" s="98"/>
-      <c r="I44" s="98"/>
-      <c r="J44" s="100" t="s">
-        <v>34</v>
-      </c>
-      <c r="K44" s="102"/>
+      <c r="D44" s="96"/>
+      <c r="E44" s="97" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" s="94"/>
+      <c r="G44" s="94"/>
+      <c r="H44" s="94"/>
+      <c r="I44" s="94"/>
+      <c r="J44" s="96" t="s">
+        <v>30</v>
+      </c>
+      <c r="K44" s="98"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="44">
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="B3:K6"/>
     <mergeCell ref="A8:E10"/>
@@ -1954,14 +2010,22 @@
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="M11:S22"/>
-    <mergeCell ref="A12:K12"/>
-    <mergeCell ref="A13:K13"/>
-    <mergeCell ref="A14:K14"/>
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="A16:K16"/>
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:K19"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="H32:K32"/>
